--- a/ExtensionFiles/translations.xlsx
+++ b/ExtensionFiles/translations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsyhhssyy/Desktop/Programming/GitHub/BGOExtension/ExtensionFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松杨\Documents\Visual Studio 2015\Projects\BGOExtension\ExtensionFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1677,10 +1677,6 @@
     <t>&lt;img alt="library" title="Library" class="iconeTexte" src="images/tta7/library.png"&gt;</t>
   </si>
   <si>
-    <t>[Laibrary1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Your best [Lab1] or [Library1] produces an additional amount of [Science1] equal to its level.&lt;br&gt; Every time you develop a technology, gain 1 [Resource1].</t>
   </si>
   <si>
@@ -1842,12 +1838,16 @@
   </si>
   <si>
     <t>Each civilization scores 1 [Culture1] per level of each of its military units and [Arena1].</t>
+  </si>
+  <si>
+    <t>[Library1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1949,7 +1949,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60%-个性色1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
     <cellStyle name="标题 3" xfId="1" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1962,6 +1962,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2780,14 +2783,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B438"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" customWidth="1"/>
-    <col min="2" max="2" width="75.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="97.625" customWidth="1"/>
+    <col min="2" max="2" width="75.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -2829,7 +2832,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -2910,7 +2913,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>223</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>285</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>343</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>310</v>
       </c>
@@ -3102,7 +3105,7 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
@@ -3265,7 +3268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>344</v>
       </c>
@@ -3292,7 +3295,7 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
@@ -3315,7 +3318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>47</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>351</v>
       </c>
@@ -3335,7 +3338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>389</v>
       </c>
@@ -3350,7 +3353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>451</v>
       </c>
@@ -3365,9 +3368,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
@@ -3380,7 +3383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>453</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>313</v>
       </c>
@@ -3472,7 +3475,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
@@ -3510,7 +3513,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>315</v>
       </c>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
@@ -3677,7 +3680,7 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.15">
@@ -3700,7 +3703,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>318</v>
       </c>
@@ -3720,9 +3723,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
@@ -3730,9 +3733,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
@@ -3740,7 +3743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>454</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>391</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>226</v>
       </c>
@@ -3780,9 +3783,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
@@ -3837,7 +3840,7 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
@@ -3845,7 +3848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>319</v>
       </c>
@@ -3857,7 +3860,7 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
@@ -3900,7 +3903,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>322</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>325</v>
       </c>
@@ -3952,7 +3955,7 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
@@ -4060,7 +4063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>392</v>
       </c>
@@ -4090,9 +4093,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
@@ -4105,7 +4108,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>394</v>
       </c>
@@ -4120,9 +4123,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
@@ -4130,7 +4133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>467</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>282</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>468</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>395</v>
       </c>
@@ -4207,7 +4210,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
@@ -4247,7 +4250,7 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
@@ -4255,7 +4258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>326</v>
       </c>
@@ -4267,7 +4270,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
@@ -4295,7 +4298,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>396</v>
       </c>
@@ -4310,12 +4313,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>330</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>359</v>
       </c>
@@ -4452,7 +4455,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
@@ -4462,7 +4465,7 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
@@ -4477,7 +4480,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.15">
@@ -4497,12 +4500,12 @@
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
@@ -4512,12 +4515,12 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.15">
@@ -4525,7 +4528,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>397</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>333</v>
       </c>
@@ -4677,12 +4680,12 @@
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.15">
@@ -4697,7 +4700,7 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.15">
@@ -4707,22 +4710,22 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.15">
@@ -4730,7 +4733,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="45" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>400</v>
       </c>
@@ -4760,7 +4763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>366</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>178</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>180</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>288</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>403</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>406</v>
       </c>
@@ -4870,7 +4873,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
         <v>410</v>
       </c>
@@ -4920,9 +4923,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.15">
@@ -4940,7 +4943,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>413</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>414</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>416</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>417</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>418</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>419</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
         <v>420</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="30" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>421</v>
       </c>
@@ -5038,14 +5041,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="30" customHeight="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5126,10 +5129,10 @@
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5137,12 +5140,12 @@
         <v>239</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>240</v>
@@ -5166,10 +5169,10 @@
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5190,10 +5193,10 @@
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5254,18 +5257,18 @@
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5294,7 +5297,7 @@
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>469</v>
@@ -5302,32 +5305,32 @@
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>